--- a/pandas_test/zukei.xlsx
+++ b/pandas_test/zukei.xlsx
@@ -1605,10 +1605,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1618,12 +1618,77 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7219950" y="857250"/>
-          <a:ext cx="1028700" cy="219075"/>
+          <a:ext cx="2590800" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -31019"/>
-            <a:gd name="adj2" fmla="val 114803"/>
+            <a:gd name="adj1" fmla="val 28240"/>
+            <a:gd name="adj2" fmla="val -82167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形吹き出し 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="9227344" y="921542"/>
+          <a:ext cx="414337" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82152"/>
+            <a:gd name="adj2" fmla="val -45850"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1971,7 +2036,7 @@
   <dimension ref="A3:AU21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
